--- a/import/prep/excel/64-2ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กย63 (1-30พย63).xlsx
+++ b/import/prep/excel/64-2ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ กย63 (1-30พย63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971ADDF3-EE78-D546-BEC5-39738905FC75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1096735-AB0D-3442-8035-29AA59579A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$T$828</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AA$250</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11797,7 +11797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -11900,17 +11900,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -11949,7 +11938,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12381,17 +12370,23 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12405,47 +12400,36 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -67605,8 +67589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G267" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U281" sqref="U281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -67632,29 +67616,29 @@
     <col min="25" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="175" t="s">
         <v>3429</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
       <c r="R1" s="53"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A2" s="54"/>
       <c r="B2" s="135"/>
       <c r="C2" s="54"/>
@@ -67678,7 +67662,7 @@
       </c>
       <c r="R2" s="58"/>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="158" t="s">
         <v>6</v>
       </c>
@@ -67688,7 +67672,7 @@
       <c r="C3" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="176" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="158" t="s">
@@ -67703,60 +67687,60 @@
       <c r="H3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="177" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="169" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="177" t="s">
+      <c r="M3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="177" t="s">
+      <c r="N3" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="169" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="184" t="s">
+      <c r="Q3" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="187" t="s">
+      <c r="R3" s="173" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="158"/>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
-      <c r="D4" s="174"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="158"/>
       <c r="F4" s="164"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="164"/>
-      <c r="I4" s="176"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="178"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="180"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
       <c r="P4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="188"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q4" s="172"/>
+      <c r="R4" s="174"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="51">
         <v>1</v>
       </c>
@@ -67816,7 +67800,7 @@
       </c>
       <c r="R5" s="66"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -67876,7 +67860,7 @@
       </c>
       <c r="R6" s="66"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="51">
         <v>3</v>
       </c>
@@ -67936,7 +67920,7 @@
       </c>
       <c r="R7" s="66"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="51">
         <v>4</v>
       </c>
@@ -67996,7 +67980,7 @@
       </c>
       <c r="R8" s="66"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="51">
         <v>5</v>
       </c>
@@ -68056,7 +68040,7 @@
       </c>
       <c r="R9" s="66"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="51">
         <v>6</v>
       </c>
@@ -68116,7 +68100,7 @@
       </c>
       <c r="R10" s="66"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="51">
         <v>7</v>
       </c>
@@ -68171,12 +68155,21 @@
         <f t="shared" ref="P11:P74" si="7">ROUNDDOWN(H11+I11+N11,2)</f>
         <v>78.64</v>
       </c>
-      <c r="Q11" s="171">
+      <c r="Q11" s="65">
+        <v>78.75</v>
+      </c>
+      <c r="R11" s="188">
+        <v>78.75</v>
+      </c>
+      <c r="S11" s="69">
+        <f>SUM(R11:R12)</f>
         <v>176.25</v>
       </c>
-      <c r="R11" s="66"/>
-    </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T11" s="187">
+        <v>176.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="51">
         <v>8</v>
       </c>
@@ -68231,10 +68224,14 @@
         <f t="shared" si="7"/>
         <v>97.37</v>
       </c>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="66"/>
-    </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q12" s="65">
+        <v>97.5</v>
+      </c>
+      <c r="R12" s="188">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="51">
         <v>9</v>
       </c>
@@ -68294,7 +68291,7 @@
       </c>
       <c r="R13" s="66"/>
     </row>
-    <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="51">
         <v>10</v>
       </c>
@@ -68354,7 +68351,7 @@
       </c>
       <c r="R14" s="66"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="51">
         <v>11</v>
       </c>
@@ -68414,7 +68411,7 @@
       </c>
       <c r="R15" s="66"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="51">
         <v>12</v>
       </c>
@@ -69135,10 +69132,19 @@
         <f t="shared" si="7"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="Q27" s="171">
+      <c r="Q27" s="65">
+        <v>33.75</v>
+      </c>
+      <c r="R27" s="188">
+        <v>33.75</v>
+      </c>
+      <c r="S27" s="69">
+        <f>SUM(R27:R29)</f>
         <v>71.25</v>
       </c>
-      <c r="R27" s="66"/>
+      <c r="T27" s="187">
+        <v>71.25</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="51">
@@ -69195,8 +69201,12 @@
         <f t="shared" si="7"/>
         <v>18.72</v>
       </c>
-      <c r="Q28" s="182"/>
-      <c r="R28" s="66"/>
+      <c r="Q28" s="65">
+        <v>18.75</v>
+      </c>
+      <c r="R28" s="188">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="51">
@@ -69253,8 +69263,12 @@
         <f t="shared" si="7"/>
         <v>18.72</v>
       </c>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="66"/>
+      <c r="Q29" s="65">
+        <v>18.75</v>
+      </c>
+      <c r="R29" s="188">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="51">
@@ -78081,7 +78095,7 @@
       </c>
       <c r="R176" s="73"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A177" s="51">
         <v>173</v>
       </c>
@@ -78141,7 +78155,7 @@
       </c>
       <c r="R177" s="73"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A178" s="51">
         <v>174</v>
       </c>
@@ -78201,7 +78215,7 @@
       </c>
       <c r="R178" s="73"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A179" s="51">
         <v>175</v>
       </c>
@@ -78261,7 +78275,7 @@
       </c>
       <c r="R179" s="73"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A180" s="51">
         <v>176</v>
       </c>
@@ -78316,12 +78330,21 @@
         <f t="shared" si="19"/>
         <v>11.23</v>
       </c>
-      <c r="Q180" s="171">
+      <c r="Q180" s="65">
+        <v>11.25</v>
+      </c>
+      <c r="R180" s="189">
+        <v>11.25</v>
+      </c>
+      <c r="S180" s="69">
+        <f>SUM(R180:R184)</f>
         <v>78.75</v>
       </c>
-      <c r="R180" s="73"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T180" s="187">
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A181" s="51">
         <v>177</v>
       </c>
@@ -78376,10 +78399,14 @@
         <f t="shared" si="19"/>
         <v>7.49</v>
       </c>
-      <c r="Q181" s="182"/>
-      <c r="R181" s="73"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q181" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="R181" s="189">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A182" s="51">
         <v>178</v>
       </c>
@@ -78434,10 +78461,14 @@
         <f t="shared" si="19"/>
         <v>18.72</v>
       </c>
-      <c r="Q182" s="182"/>
-      <c r="R182" s="73"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q182" s="65">
+        <v>18.75</v>
+      </c>
+      <c r="R182" s="189">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A183" s="51">
         <v>179</v>
       </c>
@@ -78492,10 +78523,14 @@
         <f t="shared" si="19"/>
         <v>11.23</v>
       </c>
-      <c r="Q183" s="182"/>
-      <c r="R183" s="73"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q183" s="65">
+        <v>11.25</v>
+      </c>
+      <c r="R183" s="189">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A184" s="51">
         <v>180</v>
       </c>
@@ -78550,10 +78585,14 @@
         <f t="shared" si="19"/>
         <v>29.96</v>
       </c>
-      <c r="Q184" s="172"/>
-      <c r="R184" s="73"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q184" s="65">
+        <v>30</v>
+      </c>
+      <c r="R184" s="189">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A185" s="51">
         <v>181</v>
       </c>
@@ -78613,7 +78652,7 @@
       </c>
       <c r="R185" s="73"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A186" s="51">
         <v>182</v>
       </c>
@@ -78673,7 +78712,7 @@
       </c>
       <c r="R186" s="73"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A187" s="51">
         <v>183</v>
       </c>
@@ -78733,7 +78772,7 @@
       </c>
       <c r="R187" s="73"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A188" s="51">
         <v>184</v>
       </c>
@@ -78793,7 +78832,7 @@
       </c>
       <c r="R188" s="73"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A189" s="51">
         <v>185</v>
       </c>
@@ -78853,7 +78892,7 @@
       </c>
       <c r="R189" s="73"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A190" s="51">
         <v>186</v>
       </c>
@@ -78913,7 +78952,7 @@
       </c>
       <c r="R190" s="73"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A191" s="51">
         <v>187</v>
       </c>
@@ -78973,7 +79012,7 @@
       </c>
       <c r="R191" s="73"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A192" s="51">
         <v>188</v>
       </c>
@@ -83837,7 +83876,7 @@
       </c>
       <c r="R272" s="73"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A273" s="51">
         <v>269</v>
       </c>
@@ -83897,7 +83936,7 @@
       </c>
       <c r="R273" s="73"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A274" s="51">
         <v>270</v>
       </c>
@@ -83957,7 +83996,7 @@
       </c>
       <c r="R274" s="73"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A275" s="51">
         <v>271</v>
       </c>
@@ -84017,7 +84056,7 @@
       </c>
       <c r="R275" s="73"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A276" s="51">
         <v>272</v>
       </c>
@@ -84077,7 +84116,7 @@
       </c>
       <c r="R276" s="73"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A277" s="51">
         <v>273</v>
       </c>
@@ -84139,7 +84178,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A278" s="51">
         <v>274</v>
       </c>
@@ -84194,14 +84233,24 @@
         <f t="shared" si="35"/>
         <v>89.88</v>
       </c>
-      <c r="Q278" s="181">
-        <v>187.25</v>
+      <c r="Q278" s="69">
+        <v>89.88</v>
       </c>
       <c r="R278" s="73" t="s">
         <v>3858</v>
       </c>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S278" s="69">
+        <v>89.88</v>
+      </c>
+      <c r="T278" s="69">
+        <f>SUM(S278:S279)</f>
+        <v>187.25</v>
+      </c>
+      <c r="U278" s="133">
+        <v>187.25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A279" s="51">
         <v>275</v>
       </c>
@@ -84256,12 +84305,17 @@
         <f t="shared" si="35"/>
         <v>97.37</v>
       </c>
-      <c r="Q279" s="181"/>
+      <c r="Q279" s="69">
+        <v>97.37</v>
+      </c>
       <c r="R279" s="73" t="s">
         <v>3858</v>
       </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S279" s="69">
+        <v>97.37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A280" s="51">
         <v>276</v>
       </c>
@@ -84315,7 +84369,7 @@
       </c>
       <c r="R280" s="73"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A281" s="51">
         <v>277</v>
       </c>
@@ -84375,7 +84429,7 @@
       </c>
       <c r="R281" s="73"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A282" s="51">
         <v>278</v>
       </c>
@@ -84429,7 +84483,7 @@
       </c>
       <c r="R282" s="73"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A283" s="51">
         <v>279</v>
       </c>
@@ -84483,7 +84537,7 @@
       </c>
       <c r="R283" s="73"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A284" s="51">
         <v>280</v>
       </c>
@@ -84537,7 +84591,7 @@
       </c>
       <c r="R284" s="73"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A285" s="51">
         <v>281</v>
       </c>
@@ -84591,7 +84645,7 @@
       </c>
       <c r="R285" s="73"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A286" s="51">
         <v>282</v>
       </c>
@@ -84644,7 +84698,7 @@
       </c>
       <c r="R286" s="73"/>
     </row>
-    <row r="287" spans="1:18" ht="25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" ht="25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E287" s="78" t="s">
         <v>22</v>
       </c>
@@ -84679,7 +84733,7 @@
       </c>
       <c r="R287" s="84"/>
     </row>
-    <row r="288" spans="1:18" ht="25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:21" ht="25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="G288" s="72"/>
       <c r="H288" s="72"/>
       <c r="I288" s="85">
@@ -84754,17 +84808,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="Q278:Q279"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="Q180:Q184"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
+  <mergeCells count="16">
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -84775,6 +84821,10 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -84817,25 +84867,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="175" t="s">
         <v>3167</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
       <c r="R1" s="53"/>
       <c r="S1" s="140"/>
       <c r="T1" s="140"/>
@@ -84880,7 +84930,7 @@
       <c r="C3" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="174" t="s">
+      <c r="D3" s="176" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="158" t="s">
@@ -84895,44 +84945,44 @@
       <c r="H3" s="163" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="177" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="122"/>
-      <c r="K3" s="177" t="s">
+      <c r="K3" s="169" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="177" t="s">
+      <c r="M3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="177" t="s">
+      <c r="N3" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="177" t="s">
+      <c r="O3" s="169" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="184" t="s">
+      <c r="Q3" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="190" t="s">
+      <c r="R3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="169">
+      <c r="S3" s="186">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="186" t="s">
+      <c r="T3" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="183" t="s">
+      <c r="V3" s="182" t="s">
         <v>20</v>
       </c>
       <c r="Z3" s="24"/>
@@ -84941,29 +84991,29 @@
       <c r="A4" s="158"/>
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
-      <c r="D4" s="174"/>
+      <c r="D4" s="176"/>
       <c r="E4" s="158"/>
       <c r="F4" s="164"/>
       <c r="G4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="164"/>
-      <c r="I4" s="176"/>
+      <c r="I4" s="178"/>
       <c r="J4" s="123"/>
-      <c r="K4" s="178"/>
+      <c r="K4" s="170"/>
       <c r="L4" s="180"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
       <c r="P4" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="182"/>
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -91031,15 +91081,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -91051,6 +91092,15 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
